--- a/일정계획.xlsx
+++ b/일정계획.xlsx
@@ -19,168 +19,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+  <x:si>
+    <x:t xml:space="preserve">정혜수 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>서버,DB의 경험이 없어 흐름이나 개발 일정을 파악하기 쉽지 않아 큰 틀로만 일정을 잡아 놓았습니다. 공부를 진행하면서 세부 일정을 계획할 예정입니다. (공유:GoogleDocs)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색결과 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자화면 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인+HOVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자개인별페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 게획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커밋 예정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼블리싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dress Changes Style 구축 일정 (WBS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정혜수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27일</x:t>
+  </x:si>
   <x:si>
     <x:t>8일</x:t>
   </x:si>
   <x:si>
+    <x:t>3일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
     <x:t>1월</x:t>
   </x:si>
   <x:si>
-    <x:t>3일</x:t>
+    <x:t>4일</x:t>
   </x:si>
   <x:si>
     <x:t>14일</x:t>
   </x:si>
   <x:si>
-    <x:t>29일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정혜수</x:t>
-  </x:si>
-  <x:si>
     <x:t>10일</x:t>
   </x:si>
   <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디자인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15일</x:t>
+    <x:t>1일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박수현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28일</x:t>
   </x:si>
   <x:si>
     <x:t>13일</x:t>
   </x:si>
   <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박수현</x:t>
-  </x:si>
-  <x:si>
     <x:t>30일</x:t>
   </x:si>
   <x:si>
-    <x:t>7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17일</x:t>
-  </x:si>
-  <x:si>
     <x:t>9일</x:t>
   </x:si>
   <x:si>
-    <x:t>23일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일</x:t>
+    <x:t>5일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16일</x:t>
   </x:si>
   <x:si>
     <x:t>11일</x:t>
   </x:si>
   <x:si>
+    <x:t>26일</x:t>
+  </x:si>
+  <x:si>
     <x:t>22일</x:t>
   </x:si>
   <x:si>
-    <x:t>18일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5일</x:t>
-  </x:si>
-  <x:si>
     <x:t>개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자화면 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인+HOVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자개인별페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색결과 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버,DB의 경험이 없어 흐름이나 개발 일정을 파악하기 쉽지 않아 큰 틀로만 일정을 잡아 놓았습니다. 공부를 진행하면서 세부 일정을 계획할 예정입니다. (공유:GoogleDocs)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커밋 예정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼블리싱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 게획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dress Changes Style 구축 일정 (WBS)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1135,7 +1138,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1953,7 +1955,7 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="4" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="M13" activeCellId="0" sqref="M13:M13"/>
+      <x:selection pane="bottomRight" activeCell="C24" activeCellId="0" sqref="C24:C24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1967,7 +1969,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:14" ht="40.5" hidden="1" customHeight="1">
       <x:c r="B1" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C1" s="22"/>
       <x:c r="D1" s="26"/>
@@ -1990,12 +1992,12 @@
     </x:row>
     <x:row r="3" spans="2:36">
       <x:c r="B3" s="61" t="s">
-        <x:v>52</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="62"/>
       <x:c r="D3" s="63"/>
       <x:c r="E3" s="65" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="65"/>
       <x:c r="G3" s="65"/>
@@ -2031,106 +2033,106 @@
     </x:row>
     <x:row r="4" spans="2:35">
       <x:c r="B4" s="23" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C4" s="23" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="23" t="s">
+      <x:c r="D4" s="23" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="24" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F4" s="37" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D4" s="23" t="s">
+      <x:c r="G4" s="35" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="25" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I4" s="38" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J4" s="25" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E4" s="24" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F4" s="37" t="s">
+      <x:c r="K4" s="25" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L4" s="38" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M4" s="37" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="N4" s="35" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O4" s="25" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P4" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q4" s="25" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R4" s="25" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="S4" s="38" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T4" s="37" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="U4" s="35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V4" s="25" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="W4" s="38" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="X4" s="25" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y4" s="25" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="Z4" s="38" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA4" s="37" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="AB4" s="35" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="AC4" s="25" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD4" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE4" s="25" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AF4" s="25" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG4" s="38" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G4" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H4" s="25" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I4" s="38" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J4" s="25" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="K4" s="25" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L4" s="38" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M4" s="37" t="s">
+      <x:c r="AH4" s="37" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AI4" s="36" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="N4" s="35" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O4" s="25" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P4" s="38" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q4" s="25" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R4" s="25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S4" s="38" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="T4" s="37" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="U4" s="35" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="V4" s="25" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="W4" s="38" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="X4" s="25" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Y4" s="25" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="Z4" s="38" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="AA4" s="37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AB4" s="35" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC4" s="25" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="AD4" s="38" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AE4" s="25" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AF4" s="25" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AG4" s="38" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="AH4" s="37" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="AI4" s="36" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:35" ht="0" hidden="1" customHeight="1">
@@ -2173,18 +2175,18 @@
     </x:row>
     <x:row r="6" spans="2:35" ht="17.149999999999999">
       <x:c r="B6" s="58" t="s">
-        <x:v>51</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E6" s="40"/>
       <x:c r="F6" s="40"/>
       <x:c r="G6" s="40" t="s">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H6" s="40"/>
       <x:c r="I6" s="43"/>
@@ -2197,7 +2199,7 @@
       <x:c r="P6" s="17"/>
       <x:c r="Q6" s="40"/>
       <x:c r="R6" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="S6" s="43"/>
       <x:c r="T6" s="29"/>
@@ -2220,10 +2222,10 @@
     <x:row r="7" spans="2:35">
       <x:c r="B7" s="59"/>
       <x:c r="C7" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E7" s="28"/>
       <x:c r="F7" s="28"/>
@@ -2260,10 +2262,10 @@
     <x:row r="8" spans="2:35">
       <x:c r="B8" s="59"/>
       <x:c r="C8" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="28"/>
       <x:c r="F8" s="28"/>
@@ -2300,10 +2302,10 @@
     <x:row r="9" spans="2:35">
       <x:c r="B9" s="59"/>
       <x:c r="C9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E9" s="9"/>
       <x:c r="F9" s="9"/>
@@ -2340,10 +2342,10 @@
     <x:row r="10" spans="2:35">
       <x:c r="B10" s="59"/>
       <x:c r="C10" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="49"/>
       <x:c r="F10" s="49"/>
@@ -2380,10 +2382,10 @@
     <x:row r="11" spans="2:35">
       <x:c r="B11" s="59"/>
       <x:c r="C11" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="49"/>
       <x:c r="F11" s="49"/>
@@ -2419,13 +2421,13 @@
     </x:row>
     <x:row r="12" spans="2:35" ht="17.149999999999999">
       <x:c r="B12" s="56" t="s">
-        <x:v>38</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="17"/>
       <x:c r="F12" s="17"/>
@@ -2462,10 +2464,10 @@
     <x:row r="13" spans="2:35">
       <x:c r="B13" s="57"/>
       <x:c r="C13" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9"/>
@@ -2502,10 +2504,10 @@
     <x:row r="14" spans="2:35">
       <x:c r="B14" s="57"/>
       <x:c r="C14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9"/>
@@ -2542,10 +2544,10 @@
     <x:row r="15" spans="2:35" customFormat="1">
       <x:c r="B15" s="58"/>
       <x:c r="C15" s="39" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="18" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E15" s="14"/>
       <x:c r="F15" s="14"/>
@@ -2582,10 +2584,10 @@
     <x:row r="16" spans="2:35" customFormat="1">
       <x:c r="B16" s="59"/>
       <x:c r="C16" s="39" t="s">
-        <x:v>42</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D16" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="14"/>
       <x:c r="F16" s="14"/>
@@ -2622,10 +2624,10 @@
     <x:row r="17" spans="2:35" customFormat="1">
       <x:c r="B17" s="59"/>
       <x:c r="C17" s="39" t="s">
-        <x:v>48</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E17" s="14"/>
       <x:c r="F17" s="14"/>
@@ -2697,10 +2699,10 @@
     </x:row>
     <x:row r="19" spans="2:35">
       <x:c r="B19" s="51" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C19" s="15" t="s">
-        <x:v>41</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="20"/>
       <x:c r="E19" s="10"/>
@@ -2737,25 +2739,25 @@
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:3">
       <x:c r="B21" s="52"/>
       <x:c r="C21" s="53" t="s">
-        <x:v>47</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:3">
       <x:c r="B22" s="54"/>
       <x:c r="C22" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:3">
       <x:c r="B23" s="55"/>
       <x:c r="C23" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
